--- a/datos/indicadores_umbrales.xlsx
+++ b/datos/indicadores_umbrales.xlsx
@@ -94,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -115,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,11 +193,11 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -236,132 +238,156 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
+      <c r="G5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="2" t="n">
         <v>25</v>
       </c>
     </row>

--- a/datos/indicadores_umbrales.xlsx
+++ b/datos/indicadores_umbrales.xlsx
@@ -193,11 +193,11 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>0</v>
@@ -286,7 +286,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>2</v>
@@ -318,7 +318,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>5</v>
@@ -350,7 +350,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>10</v>
@@ -381,8 +381,8 @@
       <c r="G6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>30</v>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>15</v>

--- a/datos/indicadores_umbrales.xlsx
+++ b/datos/indicadores_umbrales.xlsx
@@ -194,10 +194,10 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -271,13 +271,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>10</v>
@@ -303,10 +303,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>50</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>25</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>50</v>
@@ -335,16 +335,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="E5" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>75</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>50</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>10</v>
@@ -367,16 +367,16 @@
         <v>19</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="E6" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>125</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>75</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>15</v>
